--- a/StockInvestment/doc/2.python/2.1.Install/python_인스톨 수순.xlsx
+++ b/StockInvestment/doc/2.python/2.1.Install/python_인스톨 수순.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mysite\StockInvestment\doc\2.python\2.1.Install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C28ED7-01F6-459D-BECC-99E0E11A40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0341DEA-C7EF-4B16-85DD-00FAB162555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5AC4AAA-6376-4B73-9F95-3DF8FECCCDAA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">참고 사이트 : </t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,69 @@
   </si>
   <si>
     <t>python-3.10.1-embed-amd64.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip 업그레이드 코멘드</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\shiny\AppData\Local\Programs\Python\Python310\python.exe -m pip install --upgrade pip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Program Files\Python310-32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>python.exe -m pip install --upgrade pip</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numpy install error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error in building wheel for numpy(pyproject.toml) [python 3.10] [duplicate]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/69538027/error-in-building-wheel-for-numpypyproject-toml-python-3-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒Visual studio 2022 インストール後、エラー解除</t>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install pandas --upgrade</t>
+  </si>
+  <si>
+    <t>pip install numpy --upgrade</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -58,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +153,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Gulim"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,14 +201,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,6 +477,270 @@
         <a:xfrm>
           <a:off x="685800" y="14297025"/>
           <a:ext cx="6342857" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408409</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>75590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A10946-2AA5-4CC8-BA3B-85A9F05AEAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19097625"/>
+          <a:ext cx="9323809" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>132112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B61321-EC80-46CF-9AA7-C7C1E10D34D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24241125"/>
+          <a:ext cx="18285714" cy="9904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124704</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>47823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C76F9-73C5-413D-872B-312CA7B36BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="35071050"/>
+          <a:ext cx="6296904" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>617590</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>46719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC3F00E-0860-4E63-8685-3B722489F1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="36785550"/>
+          <a:ext cx="12276190" cy="7247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74990</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>37752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD05A30-D722-45CC-AF62-2CAD91083F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="44329350"/>
+          <a:ext cx="9676190" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74990</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>47190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73338512-B1CC-4664-8BA3-62A540B016FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="47586900"/>
+          <a:ext cx="9676190" cy="3476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02741553-15A4-4198-80F5-12A1A05E8A21}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="Y273" sqref="Y273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -699,11 +1060,11 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -718,15 +1079,64 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B141" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B203" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C204" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B214" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B258" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{5A747F16-AA73-40DF-BD31-E89BAEC3E7C0}"/>
+    <hyperlink ref="C204" r:id="rId2" xr:uid="{172409CF-A12A-430B-B9D1-DCF99118E590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>